--- a/Post/UserPostActivityCharts.xlsx
+++ b/Post/UserPostActivityCharts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23960" windowHeight="13940" tabRatio="500"/>
+    <workbookView xWindow="5340" yWindow="1220" windowWidth="23960" windowHeight="13940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1146,13 +1146,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>861.0</c:v>
+                  <c:v>821.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200.0</c:v>
+                  <c:v>581.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3901,8 +3901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3918,7 +3918,7 @@
         <v>1178</v>
       </c>
       <c r="D1">
-        <v>861</v>
+        <v>821</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3932,7 +3932,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3946,7 +3946,7 @@
         <v>200</v>
       </c>
       <c r="D3">
-        <v>200</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
